--- a/data/W412C Inventory.xlsx
+++ b/data/W412C Inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27230"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://massbay0-my.sharepoint.com/personal/dweber_massbay_edu/Documents/Documents/Science Lab Management Information/Chemical Inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arocha\Downloads\up to date tables for the project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{07DA8EF0-060F-B541-98B7-44C8D874B0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E45877B8-D66F-4203-A873-A96A5CC893F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE985304-BF22-4714-9C0A-926B3696B4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{4F11545F-50EA-CD40-A0CB-E66B7C4FAA13}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="15576" firstSheet="1" activeTab="1" xr2:uid="{4F11545F-50EA-CD40-A0CB-E66B7C4FAA13}"/>
   </bookViews>
   <sheets>
     <sheet name="FLAMMABLE" sheetId="1" r:id="rId1"/>
@@ -1019,9 +1019,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1059,7 +1059,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1165,7 +1165,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1307,7 +1307,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1321,19 +1321,19 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="1" max="1" width="10.8984375" style="1"/>
     <col min="2" max="2" width="41.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="1"/>
-    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" style="1"/>
+    <col min="5" max="5" width="13.09765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="1"/>
+    <col min="8" max="8" width="10.8984375" style="1"/>
     <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.875" style="1"/>
+    <col min="10" max="10" width="22.3984375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -4766,1965 +4766,1963 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1DC94E-8019-5445-8D71-5296E76C22F5}">
-  <dimension ref="B2:J72"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="35.875" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="1" max="1" width="35.8984375" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="19.09765625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="5">
+        <v>412</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>500</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="5">
+        <v>412</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="5">
+        <v>412</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="5">
+        <v>412</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="5">
+        <v>412</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="5">
+        <v>412</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="5">
+        <v>412</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="5">
+        <v>412</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>500</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="5">
+        <v>412</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="5">
+        <v>412</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="5">
+        <v>412</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="5">
+        <v>412</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="5">
+        <v>412</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="5">
+        <v>412</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="5">
+        <v>412</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="5">
+        <v>412</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="5">
+        <v>412</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="5">
+        <v>412</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="5">
+        <v>412</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="5">
+        <v>412</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="5">
+        <v>412</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="5">
+        <v>412</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="5">
+        <v>412</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="5">
+        <v>412</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="5">
+        <v>412</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>500</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="5">
+        <v>412</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C28" s="5">
+        <v>412</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="5">
+        <v>412</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>32</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="5">
+        <v>412</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>500</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="5">
+        <v>412</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="5">
-        <v>412</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="C32" s="5">
+        <v>412</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
         <v>500</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="5">
+        <v>412</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>500</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="5">
-        <v>412</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C34" s="5">
+        <v>412</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="5">
-        <v>412</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C35" s="5">
+        <v>412</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="5">
-        <v>412</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="C36" s="5">
+        <v>412</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" s="5">
+        <v>412</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="5">
+        <v>412</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D7" s="5">
-        <v>412</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="C39" s="5">
+        <v>412</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="5">
+        <v>412</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>500</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="5">
+        <v>412</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C42" s="5">
+        <v>412</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="5">
+        <v>412</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="5">
+        <v>412</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" s="5">
+        <v>412</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" s="5">
+        <v>412</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>50</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="5">
+        <v>412</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="5">
+        <v>412</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>500</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="5">
+        <v>412</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="5">
+        <v>412</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>500</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="5">
+        <v>412</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>25</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="5">
+        <v>412</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" s="5">
+        <v>412</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="5">
+        <v>412</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D8" s="5">
-        <v>412</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="C55" s="5">
+        <v>412</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="5">
+        <v>412</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" s="5">
+        <v>412</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="5">
+        <v>412</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="5">
+        <v>412</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="5">
+        <v>412</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="5">
+        <v>412</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1">
+        <v>8</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" s="5">
+        <v>412</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="5">
+        <v>412</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C64" s="5">
+        <v>412</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D9" s="5">
-        <v>412</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="5">
-        <v>412</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1">
-        <v>500</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="F64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="5">
-        <v>412</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="5">
-        <v>412</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="C65" s="5">
+        <v>412</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1">
+        <v>5</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D13" s="5">
-        <v>412</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" s="5">
-        <v>412</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="5">
-        <v>412</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>100</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16" s="5">
-        <v>412</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1">
-        <v>13</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="5">
-        <v>412</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="1">
-        <v>20</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" s="5">
-        <v>412</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D19" s="5">
-        <v>412</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="5">
-        <v>412</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="1">
-        <v>12</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D21" s="5">
-        <v>412</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D22" s="5">
-        <v>412</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D23" s="5">
-        <v>412</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="1">
-        <v>4</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D24" s="5">
-        <v>412</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="1">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="5">
-        <v>412</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="1">
-        <v>10</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D26" s="5">
-        <v>412</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="C66" s="5">
+        <v>412</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="1">
         <v>9</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="5">
-        <v>412</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2</v>
-      </c>
-      <c r="G27" s="1">
-        <v>500</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D28" s="5">
-        <v>412</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D29" s="5">
-        <v>412</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="5">
-        <v>412</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>32</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="5">
-        <v>412</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2</v>
-      </c>
-      <c r="G31" s="1">
-        <v>500</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32" s="5">
-        <v>412</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D33" s="5">
-        <v>412</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2</v>
-      </c>
-      <c r="G33" s="1">
-        <v>500</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="5">
-        <v>412</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1">
-        <v>500</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D35" s="5">
-        <v>412</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="1">
-        <v>3</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D36" s="5">
-        <v>412</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D37" s="5">
-        <v>412</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="1">
-        <v>4</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D38" s="5">
-        <v>412</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D39" s="5">
-        <v>412</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D40" s="5">
-        <v>412</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="1">
-        <v>2</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="5">
-        <v>412</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1">
-        <v>500</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D42" s="5">
-        <v>412</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D43" s="5">
-        <v>412</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D44" s="5">
-        <v>412</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D45" s="5">
-        <v>412</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D46" s="5">
-        <v>412</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D47" s="5">
-        <v>412</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="1">
-        <v>2</v>
-      </c>
-      <c r="G47" s="1">
-        <v>50</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D48" s="5">
-        <v>412</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="5">
-        <v>412</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1">
-        <v>500</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D50" s="5">
-        <v>412</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="1">
-        <v>2</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I50" s="1" t="s">
+      <c r="F66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="5">
-        <v>412</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1">
-        <v>500</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="5">
-        <v>412</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="1">
-        <v>4</v>
-      </c>
-      <c r="G52" s="1">
-        <v>25</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D53" s="5">
-        <v>412</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D54" s="5">
-        <v>412</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D55" s="5">
-        <v>412</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="1">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D56" s="5">
-        <v>412</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D57" s="5">
-        <v>412</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="B58" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D58" s="5">
-        <v>412</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D59" s="5">
-        <v>412</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D60" s="5">
-        <v>412</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D61" s="5">
-        <v>412</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D62" s="5">
-        <v>412</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="1">
-        <v>8</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D63" s="5">
-        <v>412</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10">
-      <c r="B64" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D64" s="5">
-        <v>412</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10">
-      <c r="B65" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D65" s="5">
-        <v>412</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="1">
-        <v>2</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10">
-      <c r="B66" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D66" s="5">
-        <v>412</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="1">
-        <v>5</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I66" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10">
-      <c r="B67" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D67" s="5">
-        <v>412</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="1">
-        <v>9</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="2:10">
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="2:10">
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="C70" s="5"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="2:10">
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="C71" s="5"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="2:10">
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="J72" s="1"/>
+      <c r="I71" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J67">
-    <sortCondition ref="B3:B67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I66">
+    <sortCondition ref="A2:A66"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6739,13 +6737,13 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="43.375" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="6" max="6" width="21.875" customWidth="1"/>
-    <col min="9" max="9" width="16.375" customWidth="1"/>
-    <col min="10" max="10" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="43.3984375" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" customWidth="1"/>
+    <col min="6" max="6" width="21.8984375" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" customWidth="1"/>
+    <col min="10" max="10" width="21.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
